--- a/medicine/Handicap/Oh_Mu/Oh_Mu.xlsx
+++ b/medicine/Handicap/Oh_Mu/Oh_Mu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oh Mu est une personnalité artistique italo-suisse, née en 1993 à Martigny, en Suisse, active dans les domaines de l'illustration et de la chanson, et activiste pour les droits des personnes autistes.
 </t>
@@ -511,17 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Evan Estelle Marchi[1],[2], qui a la double nationalité italienne et suisse[3], naît en 1993[4] à Martigny, dans le canton du Valais, et y grandit[5],[6]. Sa scolarité est marquée par le harcèlement et des burn-outs autistiques[7].
-Après le conservatoire à Martigny[8] et des études en bande dessinée à Bruxelles[9],[10], l'artiste prend le pseudonyme d'Oh Mu, décide de se lancer dans la musique et apprend en autodidacte la composition et la production[8].
-Oh Mu, qui est non binaire[11] et autiste Asperger[8], milite aussi sur Internet via son compte Instagram dédié au handicap et à l’autisme[1].
-Oh Mu vit à Paris[3].
-Parcours artistique
-Son nom d'artiste est tiré du film Nausicaä d'Hayao Miyazaki en référence aux « ömus », créatures chargées de protéger la forêt et capables d'entrer dans une « colère positive » indomptable[8]. Oh Mu explique ce choix comme suit : « C’était évident que j’allais m’appeler comme ça car, dans mon travail, l’idée de l’aliénation revient. Ces créatures [...] sont en dehors de l’humanité, peuvent être très violentes, mais elles veulent juste la paix. Il y avait cette idée de créatures aliénées, et de communication compliquée. »[12].
-Son premier disque, Le Feu, décrit ses combats intérieurs. Sa notoriété débute avec le single C'est la vie, dont la mention dans les magazines Les Inrockuptibles et Le Nouvel Obs[3] propulse la reconnaissance de sa musique dans son Valais natal[6].
-Sa musique est qualifiée d'electro-pop et alternative. Oh Mu se fait repérer sur Internet et co-produit ensuite ses albums avec le studio Soyuz[10]. L'artiste se produit sur scène depuis 2018, et assure en avril 2018 la première partie du groupe alternatif Bagarre à La Cigale[13],[7].
-Oh Mu effectue également une carrière indépendante dans le dessin. Ses œuvres exécutées au crayon ou au feutre offrent une approche brute d'un monde imaginaire et d'une autobiographie douloureuse[14].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Evan Estelle Marchi qui a la double nationalité italienne et suisse, naît en 1993 à Martigny, dans le canton du Valais, et y grandit,. Sa scolarité est marquée par le harcèlement et des burn-outs autistiques.
+Après le conservatoire à Martigny et des études en bande dessinée à Bruxelles l'artiste prend le pseudonyme d'Oh Mu, décide de se lancer dans la musique et apprend en autodidacte la composition et la production.
+Oh Mu, qui est non binaire et autiste Asperger, milite aussi sur Internet via son compte Instagram dédié au handicap et à l’autisme.
+Oh Mu vit à Paris.
 </t>
         </is>
       </c>
@@ -547,10 +556,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parcours artistique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'artiste est tiré du film Nausicaä d'Hayao Miyazaki en référence aux « ömus », créatures chargées de protéger la forêt et capables d'entrer dans une « colère positive » indomptable. Oh Mu explique ce choix comme suit : « C’était évident que j’allais m’appeler comme ça car, dans mon travail, l’idée de l’aliénation revient. Ces créatures [...] sont en dehors de l’humanité, peuvent être très violentes, mais elles veulent juste la paix. Il y avait cette idée de créatures aliénées, et de communication compliquée. ».
+Son premier disque, Le Feu, décrit ses combats intérieurs. Sa notoriété débute avec le single C'est la vie, dont la mention dans les magazines Les Inrockuptibles et Le Nouvel Obs propulse la reconnaissance de sa musique dans son Valais natal.
+Sa musique est qualifiée d'electro-pop et alternative. Oh Mu se fait repérer sur Internet et co-produit ensuite ses albums avec le studio Soyuz. L'artiste se produit sur scène depuis 2018, et assure en avril 2018 la première partie du groupe alternatif Bagarre à La Cigale,.
+Oh Mu effectue également une carrière indépendante dans le dessin. Ses œuvres exécutées au crayon ou au feutre offrent une approche brute d'un monde imaginaire et d'une autobiographie douloureuse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Oh_Mu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oh_Mu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2016 : Needle, EP
 2017 : Le Feu, EP
